--- a/Data/Crosswalks/Crosswalk_Protection_Action_Categories.xlsx
+++ b/Data/Crosswalks/Crosswalk_Protection_Action_Categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Crosswalks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6301CE8-432C-4080-8B90-FF85B9D16473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED998A-5C31-491A-978E-E0F49D6F24DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7272" yWindow="1740" windowWidth="14532" windowHeight="7620" xr2:uid="{963E9966-2395-44E9-89BE-8A1FF2B5ADA3}"/>
+    <workbookView xWindow="32700" yWindow="2640" windowWidth="23040" windowHeight="11385" xr2:uid="{963E9966-2395-44E9-89BE-8A1FF2B5ADA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,13 @@
     <t>Percent_Protected_Upper</t>
   </si>
   <si>
-    <t>Management</t>
+    <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
   </si>
   <si>
-    <t>Management and Protection</t>
+    <t>Land Management for Protection</t>
   </si>
   <si>
-    <t>Protection</t>
+    <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
   </si>
 </sst>
 </file>
@@ -469,15 +469,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="26.6640625" customWidth="1"/>
+    <col min="1" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -499,9 +499,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -510,9 +510,9 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>-1</v>
